--- a/6_semester/kurse_work/Книга1.xlsx
+++ b/6_semester/kurse_work/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenov\PycharmProjects\pit\6_semester\kurse_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352CC8F7-7FBA-419D-BE6E-9E9692C3921D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361E4E9-E3EC-4B77-B981-B37C11412140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
   </bookViews>
   <sheets>
     <sheet name="Ранги" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Упорядоченная структура</t>
   </si>
@@ -115,27 +115,41 @@
     <t>минимизация стоимости выполнения комплекса работ при увеличении времени его выполнения</t>
   </si>
   <si>
-    <t>Экономия средств при максимальной длительности проекта</t>
-  </si>
-  <si>
     <t>Средства, необходимые на ускорение проекта</t>
+  </si>
+  <si>
+    <t>Критический путь</t>
+  </si>
+  <si>
+    <t>Первичная информация</t>
+  </si>
+  <si>
+    <t>Экономия S при максимальной длительности проекта</t>
+  </si>
+  <si>
+    <t>Название Листа</t>
+  </si>
+  <si>
+    <t>ОПТ №1</t>
+  </si>
+  <si>
+    <t>ОПТ №2</t>
+  </si>
+  <si>
+    <t>ОПТ №3</t>
+  </si>
+  <si>
+    <t>ОПТ №4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,22 +162,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF202122"/>
+      <color theme="0"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,7 +221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,8 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,17 +265,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,195 +625,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563E1BB-3184-4976-BD90-157C138E0238}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26" style="6" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="M1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I3" s="7" t="s">
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="8" t="s">
+      <c r="M2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="I5" s="8" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="I6" s="8" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="I5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="I7" s="8" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="I6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="8"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="9"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:J2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -736,7 +851,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,33 +861,34 @@
     <col min="18" max="18" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="O1" s="5" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="P1" s="18"/>
+      <c r="R1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O2" t="s">
+      <c r="O2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -786,63 +902,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0009423-FC1B-4DDF-9D26-6D21E1563654}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="O2" t="s">
+      <c r="R1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="O2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -856,64 +964,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC519985-98EF-454F-8ED2-213F1D7BB1FB}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="O2" t="s">
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -927,63 +1026,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD28A9-9C8A-4EEA-9282-6F41B88FDE7C}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="O2" t="s">
+      <c r="R1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="11" t="s">
         <v>21</v>
       </c>
     </row>

--- a/6_semester/kurse_work/Книга1.xlsx
+++ b/6_semester/kurse_work/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenov\PycharmProjects\pit\6_semester\kurse_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361E4E9-E3EC-4B77-B981-B37C11412140}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99721D-B04E-42A3-AC1A-9D5E33B4E69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
   </bookViews>
   <sheets>
     <sheet name="Ранги" sheetId="1" r:id="rId1"/>
@@ -293,6 +293,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,12 +310,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,25 +649,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -862,15 +862,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0009423-FC1B-4DDF-9D26-6D21E1563654}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,18 +916,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="18"/>
       <c r="R1" s="15" t="s">
         <v>25</v>
       </c>
@@ -938,19 +939,19 @@
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
@@ -967,7 +968,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,18 +979,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="18"/>
       <c r="R1" s="15" t="s">
         <v>23</v>
       </c>
@@ -1028,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD28A9-9C8A-4EEA-9282-6F41B88FDE7C}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,18 +1041,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
       <c r="O1" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="18"/>
       <c r="R1" s="15" t="s">
         <v>28</v>
       </c>

--- a/6_semester/kurse_work/Книга1.xlsx
+++ b/6_semester/kurse_work/Книга1.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenov\PycharmProjects\pit\6_semester\kurse_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99721D-B04E-42A3-AC1A-9D5E33B4E69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D58CFDD-28C3-4E0E-AA65-F95A6526B47F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
+    <workbookView xWindow="-38520" yWindow="-5520" windowWidth="38640" windowHeight="21840" xr2:uid="{CB415FE7-D4F3-4F57-A017-DF2B196B8604}"/>
   </bookViews>
   <sheets>
     <sheet name="Ранги" sheetId="1" r:id="rId1"/>
     <sheet name="ОПТ №1" sheetId="2" r:id="rId2"/>
     <sheet name="ОПТ №2" sheetId="3" r:id="rId3"/>
     <sheet name="ОПТ №3" sheetId="5" r:id="rId4"/>
-    <sheet name="ОПТ №4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Упорядоченная структура</t>
   </si>
@@ -91,9 +90,6 @@
     <t>Средства, необходимые на ускорения критического пути</t>
   </si>
   <si>
-    <t>сокращение времени выполнения комплекса работ при минимальном вложении дополнительных средств.(без изменения пути критического)</t>
-  </si>
-  <si>
     <t>τi</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>Первичная информация</t>
   </si>
   <si>
-    <t>Экономия S при максимальной длительности проекта</t>
-  </si>
-  <si>
     <t>Название Листа</t>
   </si>
   <si>
@@ -137,9 +130,6 @@
   </si>
   <si>
     <t>ОПТ №3</t>
-  </si>
-  <si>
-    <t>ОПТ №4</t>
   </si>
 </sst>
 </file>
@@ -627,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563E1BB-3184-4976-BD90-157C138E0238}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +654,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
       <c r="M1" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="24"/>
       <c r="O1" s="24"/>
@@ -692,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>9</v>
@@ -701,19 +691,19 @@
         <v>10</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I3" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="9"/>
@@ -721,10 +711,10 @@
     </row>
     <row r="4" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="9"/>
@@ -732,22 +722,17 @@
     </row>
     <row r="5" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="I5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="9"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="I6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>24</v>
-      </c>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6" s="18"/>
       <c r="M6" s="2"/>
       <c r="N6" s="9"/>
       <c r="O6" s="3"/>
@@ -904,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0009423-FC1B-4DDF-9D26-6D21E1563654}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +915,7 @@
       </c>
       <c r="P1" s="18"/>
       <c r="R1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
@@ -943,16 +928,16 @@
         <v>1</v>
       </c>
       <c r="P2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +978,7 @@
       </c>
       <c r="P1" s="18"/>
       <c r="R1" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
@@ -1006,78 +991,16 @@
         <v>1</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AD28A9-9C8A-4EEA-9282-6F41B88FDE7C}">
-  <dimension ref="A1:W2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="O1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="18"/>
-      <c r="R1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="O2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
